--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\iftosi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iftosi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Product details</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Diamonds</t>
   </si>
   <si>
-    <t>Shape</t>
-  </si>
-  <si>
     <t>Clarity</t>
   </si>
   <si>
@@ -96,19 +93,43 @@
     <t>Price</t>
   </si>
   <si>
-    <t>dsdsd</t>
-  </si>
-  <si>
-    <t>bfdg</t>
-  </si>
-  <si>
-    <t>vdvcxvx</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>IGI</t>
+  </si>
+  <si>
+    <t>BlueStone</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Rings</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>White Gold</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Ring for Upload</t>
+  </si>
+  <si>
+    <t>AGS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,6 +743,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -757,6 +795,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -911,11 +966,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -958,66 +1029,114 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>2324</v>
+        <v>1002324</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>45645</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>56</v>
       </c>
       <c r="H2">
         <v>100</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>12.12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>2121</v>
+      </c>
+      <c r="U2">
+        <v>123</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" t="s">
+        <v>26</v>
       </c>
       <c r="Y2">
         <v>152000</v>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -9,14 +9,13 @@
   </bookViews>
   <sheets>
     <sheet name="Jewellery" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Category</t>
   </si>
@@ -132,43 +131,7 @@
     <t>GOLD,DIAMONDS &amp; GEMSTONES</t>
   </si>
   <si>
-    <t>GOLD &amp; DIAMONDS</t>
-  </si>
-  <si>
-    <t>PLATINUM &amp; DIAMONDS</t>
-  </si>
-  <si>
-    <t>SILVER &amp; DIAMONDS</t>
-  </si>
-  <si>
-    <t>SILVER,DIAMONDS &amp; GEMSTONES</t>
-  </si>
-  <si>
-    <t>GOLD &amp; GEMSTONES</t>
-  </si>
-  <si>
-    <t>SILVER &amp; GEMSTONES</t>
-  </si>
-  <si>
-    <t>GOLD &amp; SWAROVSKI ZIRCONIA</t>
-  </si>
-  <si>
-    <t>SILVER &amp; SWAROVSKI ZIRCONIA</t>
-  </si>
-  <si>
-    <t>GOLD &amp; CZ</t>
-  </si>
-  <si>
-    <t>SILVER &amp; CZ</t>
-  </si>
-  <si>
-    <t>PLAIN GOLD</t>
-  </si>
-  <si>
-    <t>PLAIN PLATINUM</t>
-  </si>
-  <si>
-    <t>PLAIN SILVER</t>
+    <t> </t>
   </si>
 </sst>
 </file>
@@ -270,13 +233,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.8542510121458"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.1417004048583"/>
@@ -427,66 +390,222 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="s">
-        <v>34</v>
+    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1048576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1048576" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F1:F10" type="list">
+  <dataValidations count="23">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F1" type="list">
       <formula1>"Gold,Silver,Platinum"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1:G10" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1" type="list">
       <formula1>"White,Yellow,Pink"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H1:H10 O1:O10" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H1 O1" type="list">
       <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I1:I10 N1:N10" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I1 N1" type="list">
       <formula1>"IF,VVS1,VVS2,VS1,VS2,SI1,SI2,I1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1:J10 P1:P10 U1:U10 Y1:Y10 AE1:AF10" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1 P1 U1 Y1 AE1:AF1" type="decimal">
       <formula1>0</formula1>
       <formula2>99999.99</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K1:L10 R1:S10 V1:W10 Z1:Z10 AG1:AG10" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K1:L1 R1:S1 V1:W1 Z1 AG1" type="decimal">
       <formula1>0</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M1:M10" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M1" type="list">
       <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T1:T10" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T1" type="list">
       <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1048576" type="list">
+      <formula1>"Rings,Earrings,Pendants,Necklaces,Bangles/Bracelets,NosePin,Polki/Jadau,Mangalsutra"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C1048576" type="list">
+      <formula1>"GOLD &amp; DIAMONDS,PLATINUM &amp; DIAMONDS,SILVER &amp; DIAMONDS,GOLD,DIAMONDS &amp; GEMSTONES,PLATINUM,DIAMONDS &amp; GEMSTONES,SILVER,DIAMONDS &amp; GEMSTONES,GOLD &amp; GEMSTONES,SILVER &amp; GEMSTONES,GOLD &amp; SWAROVSKI ZIRCONIA,SILVER &amp; SWAROVSKI ZIRCONIA,GOLD &amp; CZ,SILVER &amp; CZ,PLAIN GOLD,PLAIN PLATINUM,PLAIN SILVER,GOLD &amp; POLKI"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D1048576" type="list">
+      <formula1>"SGL,DGLA,EGL,IGI,BIS,NONE,Other"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F1048576" type="list">
+      <formula1>"Gold,Silver,Platinum"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1048576" type="list">
+      <formula1>"White,Yellow,Pink"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H1048576" type="list">
+      <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I1048576" type="list">
+      <formula1>"IF,VVS1,VVS2,VS1,VS2,SI1,SI2,I1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J1048576 P2:P1048576 U2:U1048576 Y2:Y1048576 AE2:AF1048576" type="decimal">
+      <formula1>0</formula1>
+      <formula2>99999.99</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:L1048576 R2:S1048576 V2:W1048576 Z2:Z1048576 AG2:AG1048576" type="decimal">
+      <formula1>0</formula1>
+      <formula2>9999999.99</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M2:M1048576" type="list">
+      <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N1048576" type="list">
+      <formula1>"IF,VVS1,VVS2,VS1,VS2,SI1,SI2,I1"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O1048576" type="list">
+      <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q2:Q1048576 X2:X1048576" type="whole">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T2:T1048576" type="list">
+      <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC2:AC1048576" type="list">
+      <formula1>"12,14,18,20,22,24,995,999,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -498,110 +617,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="YP34:YP48"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2834008097166"/>
-    <col collapsed="false" hidden="false" max="665" min="5" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="666" min="666" style="0" width="36.5708502024291"/>
-    <col collapsed="false" hidden="false" max="1025" min="667" style="0" width="8.5748987854251"/>
-  </cols>
-  <sheetData>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP34" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP35" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP36" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP37" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP38" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP39" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP40" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP41" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP42" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP43" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP44" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP45" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP46" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP47" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="YP48" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Category</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Diamonds</t>
   </si>
   <si>
-    <t>Clarity</t>
-  </si>
-  <si>
-    <t>Colour</t>
-  </si>
-  <si>
     <t>Carat</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SL/SWCZ</t>
-  </si>
-  <si>
     <t>Rings</t>
   </si>
   <si>
@@ -126,7 +117,49 @@
     <t>White</t>
   </si>
   <si>
-    <t>SWAROVSKI ZIRCONIA</t>
+    <t>Clarity1</t>
+  </si>
+  <si>
+    <t>Clarity2</t>
+  </si>
+  <si>
+    <t>Colour1</t>
+  </si>
+  <si>
+    <t>Colour2</t>
+  </si>
+  <si>
+    <t>GD/DIA</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>VVS</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>VS1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Diwali</t>
   </si>
 </sst>
 </file>
@@ -181,7 +214,206 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -192,6 +424,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="O1:O1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Colour1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="D1:D1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Certficate"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AB1:AB1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="AB1:AB1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Purity(in KT)"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:M1048576" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="M1:M1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Clarity1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="N1:N1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Clarity2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="P1:P1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Colour2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L1:L1048576" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="L1:L1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Diamonds"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:I1048576" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="I1:I1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Polki Quality"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H1:H1048576" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="H1:H1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Polki Color"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G1:G1048576" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="G1:G1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Gold Type"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F1048576" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="F1:F1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Metal"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,10 +824,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AMF1048576"/>
+  <dimension ref="A1:AMH1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,27 +835,33 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" customWidth="1"/>
-    <col min="27" max="27" width="21" customWidth="1"/>
-    <col min="28" max="28" width="22" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="24.42578125" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" customWidth="1"/>
+    <col min="29" max="29" width="21" customWidth="1"/>
+    <col min="30" max="30" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,111 +899,155 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AMF1" s="2"/>
+      <c r="AMG1" s="2"/>
+      <c r="AMH1" s="2"/>
+    </row>
+    <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="AMD1" s="2"/>
-      <c r="AME1" s="2"/>
-      <c r="AMF1" s="2"/>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2">
+        <v>0.77</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1278.55</v>
+      </c>
+      <c r="X2">
+        <v>12</v>
+      </c>
+      <c r="Y2">
+        <v>11200</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2">
+        <v>995</v>
+      </c>
+      <c r="AC2">
+        <v>12</v>
+      </c>
+      <c r="AD2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:1020" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2">
-        <v>12</v>
-      </c>
-      <c r="T2">
-        <v>1200</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>12</v>
-      </c>
-      <c r="W2">
-        <v>11200</v>
-      </c>
-      <c r="Z2">
-        <v>995</v>
-      </c>
-      <c r="AA2">
-        <v>12</v>
-      </c>
-      <c r="AB2">
-        <v>30</v>
+    <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1122</v>
       </c>
     </row>
     <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048576" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>" ,Rings,Earrings,Pendants,Necklaces,Bangles/Bracelets,NosePin,Polki/Jadau,Mangalsutra"</formula1>
     </dataValidation>
@@ -668,26 +1060,45 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"White,Yellow,Pink"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 P2:P1048576 O2:O1048576">
       <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 N2:N1048576">
       <formula1>"IF,VVS1,VVS2,VS1,VS2,SI1,SI2,I1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE,CZ,SWAROVSKI ZIRCONIA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576">
       <formula1>"12,14,18,20,22,24,995,999"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"GD/DIA,PL/DIA,SL/DIA,GD/DIA/CS,PL/DIA/CS,SL/DIA/CS,GD/CS,SL/CS,GD/SWCZ,SL/SWCZ,GD/CZ,SL/CZ,PLAIN GD,PLAIN SL,PLAIN PL,GD/POL, "</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+      <formula1>"IF,VVS,VS,SI,I1"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M1 L1 I1:I1048576 H1:H1048576 G1:G1048576 F1:F1048576 D1:D1048576 AB1:AB1048576 L4:L1048576 M4:M1048576" listDataValidation="1"/>
+  </ignoredErrors>
+  <tableParts count="11">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Net Weight (in Grams)</t>
-  </si>
-  <si>
-    <t>Gross Weight(in Grams)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -824,10 +821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AMH1048576"/>
+  <dimension ref="A1:AMG1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,10 +855,9 @@
     <col min="27" max="27" width="15.5703125" customWidth="1"/>
     <col min="28" max="28" width="14.140625" customWidth="1"/>
     <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="30" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1021" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,16 +895,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>12</v>
@@ -949,46 +945,43 @@
       <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="AME1" s="2"/>
       <c r="AMF1" s="2"/>
       <c r="AMG1" s="2"/>
-      <c r="AMH1" s="2"/>
     </row>
-    <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
       <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
       </c>
       <c r="Q2">
         <v>0.77</v>
@@ -1006,7 +999,7 @@
         <v>11200</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2">
         <v>995</v>
@@ -1014,25 +1007,22 @@
       <c r="AC2">
         <v>12</v>
       </c>
-      <c r="AD2">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1021" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
         <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -1043,7 +1033,7 @@
     </row>
     <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048576" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Category</t>
   </si>
@@ -157,6 +157,33 @@
   </si>
   <si>
     <t>Diwali</t>
+  </si>
+  <si>
+    <t>Marquise</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Pendants</t>
+  </si>
+  <si>
+    <t>asd3</t>
+  </si>
+  <si>
+    <t>PLAIN GD</t>
+  </si>
+  <si>
+    <t>BIS</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>wewer</t>
   </si>
 </sst>
 </file>
@@ -824,7 +851,7 @@
   <dimension ref="A1:AMG1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1056,58 @@
       </c>
       <c r="S3">
         <v>1122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1021" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5">
+        <v>14</v>
+      </c>
+      <c r="Y5">
+        <v>1222</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5">
+        <v>995</v>
+      </c>
+      <c r="AC5">
+        <v>14</v>
       </c>
     </row>
     <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
@@ -1075,7 +1154,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M1 L1 I1:I1048576 H1:H1048576 G1:G1048576 F1:F1048576 D1:D1048576 AB1:AB1048576 L4:L1048576 M4:M1048576" listDataValidation="1"/>
+    <ignoredError sqref="M1 L1 I1:I1048576 H1:H1048576 G1:G4 F1:F4 D1:D4 AB1:AB4 L5:L1048576 M5:M1048576 D6:D1048576 F6:F1048576 G6:G1048576 AB6:AB1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="11">
     <tablePart r:id="rId2"/>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>wewer</t>
+  </si>
+  <si>
+    <t>Stone Color</t>
   </si>
 </sst>
 </file>
@@ -238,7 +241,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -451,7 +472,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="O1:O1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour1"/>
@@ -461,7 +482,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="D1:D1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Certficate"/>
@@ -471,8 +492,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AB1:AB1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="AB1:AB1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AC1:AC1048576" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="AC1:AC1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Purity(in KT)"/>
   </tableColumns>
@@ -480,8 +501,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="U1:U1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="U1:U1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Stone Color"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:M1048576" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:M1048576" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="M1:M1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Clarity1"/>
@@ -491,7 +522,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="N1:N1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Clarity2"/>
@@ -501,7 +532,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="P1:P1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour2"/>
@@ -511,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L1:L1048576" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L1:L1048576" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="L1:L1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Diamonds"/>
@@ -521,7 +552,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:I1048576" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:I1048576" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="I1:I1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Polki Quality"/>
@@ -531,7 +562,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H1:H1048576" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H1:H1048576" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="H1:H1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Polki Color"/>
@@ -541,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G1:G1048576" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G1:G1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="G1:G1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Gold Type"/>
@@ -551,7 +582,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F1048576" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F1048576" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="F1:F1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Metal"/>
@@ -848,10 +879,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AMG1048576"/>
+  <dimension ref="A1:AMH1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,18 +904,18 @@
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" customWidth="1"/>
-    <col min="24" max="24" width="24.42578125" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" customWidth="1"/>
-    <col min="29" max="29" width="21" customWidth="1"/>
+    <col min="20" max="21" width="20.5703125" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1"/>
+    <col min="25" max="25" width="24.42578125" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" customWidth="1"/>
+    <col min="30" max="30" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1021" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,37 +977,40 @@
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AME1" s="2"/>
       <c r="AMF1" s="2"/>
       <c r="AMG1" s="2"/>
+      <c r="AMH1" s="2"/>
     </row>
-    <row r="2" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1019,23 +1053,23 @@
       <c r="S2">
         <v>1278.55</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>12</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>11200</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>45</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>995</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>37</v>
       </c>
@@ -1058,7 +1092,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="4" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>46</v>
       </c>
@@ -1075,7 +1109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:1021" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1094,19 +1128,19 @@
       <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>14</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1222</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>54</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>995</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>14</v>
       </c>
     </row>
@@ -1116,7 +1150,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>" ,Rings,Earrings,Pendants,Necklaces,Bangles/Bracelets,NosePin,Polki/Jadau,Mangalsutra"</formula1>
     </dataValidation>
@@ -1141,7 +1175,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE,CZ,SWAROVSKI ZIRCONIA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC1048576">
       <formula1>"12,14,18,20,22,24,995,999"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -1150,13 +1184,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"IF,VVS,VS,SI,I1"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
+      <formula1>"Black,Blue,Brown,Cream,Green,Pink,Purple,Red,White,Yellow"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M1 L1 I1:I1048576 H1:H1048576 G1:G4 F1:F4 D1:D4 AB1:AB4 L5:L1048576 M5:M1048576 D6:D1048576 F6:F1048576 G6:G1048576 AB6:AB1048576" listDataValidation="1"/>
+    <ignoredError sqref="M1 L1 I1:I1048576 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 M5:M1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="11">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1168,6 +1205,7 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Category</t>
   </si>
@@ -138,15 +138,9 @@
     <t>VVS</t>
   </si>
   <si>
-    <t>I1</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>VS1</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -187,6 +181,9 @@
   </si>
   <si>
     <t>Stone Color</t>
+  </si>
+  <si>
+    <t>IF</t>
   </si>
 </sst>
 </file>
@@ -881,8 +878,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMH1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>16</v>
@@ -1036,13 +1033,13 @@
         <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q2">
         <v>0.77</v>
@@ -1060,7 +1057,7 @@
         <v>11200</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC2">
         <v>995</v>
@@ -1074,16 +1071,16 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -1094,39 +1091,39 @@
     </row>
     <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
         <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y5">
         <v>14</v>
@@ -1135,7 +1132,7 @@
         <v>1222</v>
       </c>
       <c r="AB5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC5">
         <v>995</v>
@@ -1150,7 +1147,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>" ,Rings,Earrings,Pendants,Necklaces,Bangles/Bracelets,NosePin,Polki/Jadau,Mangalsutra"</formula1>
     </dataValidation>
@@ -1166,7 +1163,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 P2:P1048576 O2:O1048576">
       <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"IF,VVS1,VVS2,VS1,VS2,SI1,SI2,I1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
@@ -1182,16 +1179,19 @@
       <formula1>"GD/DIA,PL/DIA,SL/DIA,GD/DIA/CS,PL/DIA/CS,SL/DIA/CS,GD/CS,SL/CS,GD/SWCZ,SL/SWCZ,GD/CZ,SL/CZ,PLAIN GD,PLAIN SL,PLAIN PL,GD/POL, "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
-      <formula1>"IF,VVS,VS,SI,I1"</formula1>
+      <formula1>"IF,VVS,VS,SI,I"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"Black,Blue,Brown,Cream,Green,Pink,Purple,Red,White,Yellow"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+      <formula1>"IF,VVS,VS,SI,I"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M1 L1 I1:I1048576 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 M5:M1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576" listDataValidation="1"/>
+    <ignoredError sqref="L1 I1:I1048576 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576 N1 N5:N1048576 M1:M1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="12">
     <tablePart r:id="rId2"/>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iftosi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\iftosi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,9 +99,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Rings</t>
-  </si>
-  <si>
     <t>12aqwas</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Pendants</t>
-  </si>
-  <si>
     <t>asd3</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>IF</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Pendant</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -469,7 +487,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="O1:O1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour1"/>
@@ -479,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="D1:D1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Certficate"/>
@@ -489,7 +507,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AC1:AC1048576" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AC1:AC1048576" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="AC1:AC1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Purity(in KT)"/>
@@ -499,7 +517,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="U1:U1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="U1:U1048576" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="U1:U1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Stone Color"/>
@@ -508,8 +526,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Category"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:M1048576" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:M1048576" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="M1:M1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Clarity1"/>
@@ -519,7 +547,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="N1:N1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Clarity2"/>
@@ -529,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="P1:P1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour2"/>
@@ -539,7 +567,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L1:L1048576" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L1:L1048576" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="L1:L1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Diamonds"/>
@@ -549,7 +577,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:I1048576" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:I1048576" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="I1:I1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Polki Quality"/>
@@ -559,7 +587,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H1:H1048576" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H1:H1048576" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="H1:H1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Polki Color"/>
@@ -569,7 +597,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G1:G1048576" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G1:G1048576" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="G1:G1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Gold Type"/>
@@ -579,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F1048576" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="F1:F1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Metal"/>
@@ -878,8 +906,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMH1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,16 +978,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>12</v>
@@ -974,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>16</v>
@@ -1009,37 +1037,37 @@
     </row>
     <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
       </c>
       <c r="Q2">
         <v>0.77</v>
@@ -1057,7 +1085,7 @@
         <v>11200</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC2">
         <v>995</v>
@@ -1068,19 +1096,19 @@
     </row>
     <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
         <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -1091,39 +1119,39 @@
     </row>
     <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
       </c>
       <c r="Y5">
         <v>14</v>
@@ -1132,7 +1160,7 @@
         <v>1222</v>
       </c>
       <c r="AB5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC5">
         <v>995</v>
@@ -1149,7 +1177,7 @@
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>" ,Rings,Earrings,Pendants,Necklaces,Bangles/Bracelets,NosePin,Polki/Jadau,Mangalsutra"</formula1>
+      <formula1>" ,Ring,Earring,Pendant,Necklace,Bangle/Bracelet,NosePin,Polki/Jadau,Mangalsutra"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"SGL,DGLA,EGL,IGI,BIS,NONE,Other, "</formula1>
@@ -1164,7 +1192,7 @@
       <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>"IF,VVS1,VVS2,VS1,VS2,SI1,SI2,I1"</formula1>
+      <formula1>"IF,VVS,VS,SI,I"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant"</formula1>
@@ -1191,9 +1219,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L1 I1:I1048576 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576 N1 N5:N1048576 M1:M1048576" listDataValidation="1"/>
+    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576 N1 N5:N1048576 M1:M1048576 I1:I1048576 A1:A1048576" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="12">
+  <tableParts count="13">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1206,6 +1234,7 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -238,7 +238,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -487,7 +505,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="O1:O1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour1"/>
@@ -497,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="D1:D1048576" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="D1:D1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Certficate"/>
@@ -507,7 +525,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AC1:AC1048576" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AC1:AC1048576" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="AC1:AC1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Purity(in KT)"/>
@@ -517,7 +535,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="U1:U1048576" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="U1:U1048576" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="U1:U1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Stone Color"/>
@@ -527,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A1048576" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:A1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Category"/>
@@ -536,8 +554,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="C1:C1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C1:C1048576"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Combination"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:M1048576" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="M1:M1048576" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="M1:M1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Clarity1"/>
@@ -547,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="N1:N1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Clarity2"/>
@@ -557,7 +585,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="P1:P1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour2"/>
@@ -567,7 +595,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L1:L1048576" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="L1:L1048576" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="L1:L1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Diamonds"/>
@@ -577,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:I1048576" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="I1:I1048576" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="I1:I1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Polki Quality"/>
@@ -587,7 +615,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H1:H1048576" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="H1:H1048576" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="H1:H1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Polki Color"/>
@@ -597,7 +625,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G1:G1048576" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="G1:G1048576" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="G1:G1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Gold Type"/>
@@ -607,7 +635,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F1048576" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F1:F1048576" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="F1:F1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Metal"/>
@@ -907,14 +935,14 @@
   <dimension ref="A1:AMH1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
@@ -1204,7 +1232,7 @@
       <formula1>"12,14,18,20,22,24,995,999"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"GD/DIA,PL/DIA,SL/DIA,GD/DIA/CS,PL/DIA/CS,SL/DIA/CS,GD/CS,SL/CS,GD/SWCZ,SL/SWCZ,GD/CZ,SL/CZ,PLAIN GD,PLAIN SL,PLAIN PL,GD/POL, "</formula1>
+      <formula1>"GD/DIA,PT/DIA,SL/DIA,GD/DIA/CS,PT/DIA/CS,SL/DIA/CS,GD/CS,SL/CS,GD/SWCZ,SL/SWCZ,GD/CZ,SL/CZ,PLAIN GD,PLAIN SL,PLAIN PT,GD/POL, "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"IF,VVS,VS,SI,I"</formula1>
@@ -1219,9 +1247,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576 N1 N5:N1048576 M1:M1048576 I1:I1048576 A1:A1048576" listDataValidation="1"/>
+    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576 N1 N5:N1048576 M1:M1048576 I1:I1048576 A1:A1048576 C1:C1048576" listDataValidation="1"/>
   </ignoredErrors>
-  <tableParts count="13">
+  <tableParts count="14">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1235,6 +1263,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\iftosi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gangesh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Category</t>
   </si>
@@ -184,13 +184,34 @@
   </si>
   <si>
     <t>Pendant</t>
+  </si>
+  <si>
+    <t>Earring</t>
+  </si>
+  <si>
+    <t>DGLA</t>
+  </si>
+  <si>
+    <t>bjp221</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>EID collection</t>
+  </si>
+  <si>
+    <t>Clarity3</t>
+  </si>
+  <si>
+    <t>Colour3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +225,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,12 +252,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -505,8 +534,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="O1:O1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="P1:P1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour1"/>
   </tableColumns>
@@ -525,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AC1:AC1048576" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="AC1:AC1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AE1:AE1048576" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="AE1:AE1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Purity(in KT)"/>
   </tableColumns>
@@ -535,8 +564,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="U1:U1048576" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="U1:U1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="W1:W1048576" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="W1:W1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Stone Color"/>
   </tableColumns>
@@ -575,20 +604,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="N1:N1048576"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Clarity2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:O1048576" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="N1:O1048576"/>
+  <tableColumns count="2">
+    <tableColumn id="2" name="Clarity2"/>
+    <tableColumn id="1" name="Clarity3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="P1:P1048576"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Colour2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="Q1:R1048576" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="Q1:R1048576"/>
+  <tableColumns count="2">
+    <tableColumn id="2" name="Colour2"/>
+    <tableColumn id="1" name="Colour3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,10 +963,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AMH1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,23 +983,23 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" customWidth="1"/>
-    <col min="20" max="21" width="20.5703125" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1"/>
-    <col min="25" max="25" width="24.42578125" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" customWidth="1"/>
-    <col min="30" max="30" width="21" customWidth="1"/>
+    <col min="14" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="18" width="10" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="22" max="23" width="20.5703125" customWidth="1"/>
+    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" customWidth="1"/>
+    <col min="27" max="27" width="24.42578125" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" customWidth="1"/>
+    <col min="32" max="32" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1024" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,62 +1039,68 @@
       <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AMF1" s="2"/>
-      <c r="AMG1" s="2"/>
       <c r="AMH1" s="2"/>
+      <c r="AMI1" s="2"/>
+      <c r="AMJ1" s="2"/>
     </row>
-    <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1089,40 +1126,46 @@
         <v>37</v>
       </c>
       <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.77</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>1278.55</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>12</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>11200</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>995</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>36</v>
       </c>
@@ -1133,19 +1176,25 @@
         <v>37</v>
       </c>
       <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
         <v>41</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>1122</v>
       </c>
     </row>
-    <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>43</v>
       </c>
@@ -1153,16 +1202,22 @@
         <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:1022" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1181,20 +1236,82 @@
       <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>14</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>1222</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>50</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>995</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6">
+        <v>0.22</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1390</v>
+      </c>
+      <c r="AA6">
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <v>12000</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6">
+        <v>995</v>
+      </c>
+      <c r="AF6">
+        <v>23</v>
       </c>
     </row>
     <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
@@ -1203,7 +1320,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>" ,Ring,Earring,Pendant,Necklace,Bangle/Bracelet,NosePin,Polki/Jadau,Mangalsutra"</formula1>
     </dataValidation>
@@ -1216,38 +1333,35 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"White,Yellow,Pink"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 P2:P1048576 O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 Q2:R1048576 P2:P1048576">
       <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 M1:M1048576 O2:O1048576">
       <formula1>"IF,VVS,VS,SI,I"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE,CZ,SWAROVSKI ZIRCONIA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
       <formula1>"12,14,18,20,22,24,995,999"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"GD/DIA,PT/DIA,SL/DIA,GD/DIA/CS,PT/DIA/CS,SL/DIA/CS,GD/CS,SL/CS,GD/SWCZ,SL/SWCZ,GD/CZ,SL/CZ,PLAIN GD,PLAIN SL,PLAIN PT,GD/POL, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
-      <formula1>"IF,VVS,VS,SI,I"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
       <formula1>"Black,Blue,Brown,Cream,Green,Pink,Purple,Red,White,Yellow"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
-      <formula1>"IF,VVS,VS,SI,I"</formula1>
+      <formula1>"IF,VVS,VS,SI,I, "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AC1:AC4 L5:L1048576 D6:D1048576 F6:F1048576 G6:G1048576 AC6:AC1048576 U1:U1048576 N1 N5:N1048576 M1:M1048576 I1:I1048576 A1:A1048576 C1:C1048576" listDataValidation="1"/>
+    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AE1:AE4 L5 D7:D1048576 F7:F1048576 G7:G1048576 AE7:AE1048576 W1:W1048576 O5 M1:M5 I1:I1048576 A1:A5 C1:C5 A7:A1048576 C7:C1048576 L7:L1048576 M7:M1048576 O7:O1048576 N1" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="14">
     <tablePart r:id="rId2"/>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gangesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XAMPP\htdocs\iftosi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -966,7 +966,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Category</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>EID collection</t>
-  </si>
-  <si>
-    <t>Clarity3</t>
   </si>
   <si>
     <t>Colour3</t>
@@ -534,8 +531,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="P1:P1048576" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="P1:P1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="O1:O1048576" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="O1:O1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Colour1"/>
   </tableColumns>
@@ -554,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AE1:AE1048576" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="AE1:AE1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="AD1:AD1048576" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="AD1:AD1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Purity(in KT)"/>
   </tableColumns>
@@ -564,8 +561,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="W1:W1048576" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="W1:W1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="V1:V1048576" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="V1:V1048576"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Stone Color"/>
   </tableColumns>
@@ -604,19 +601,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:O1048576" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="N1:O1048576"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N1:N1048576" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="N1:N1048576"/>
+  <tableColumns count="1">
     <tableColumn id="2" name="Clarity2"/>
-    <tableColumn id="1" name="Clarity3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="Q1:R1048576" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="Q1:R1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:Q1048576" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="P1:Q1048576"/>
   <tableColumns count="2">
     <tableColumn id="2" name="Colour2"/>
     <tableColumn id="1" name="Colour3"/>
@@ -963,10 +959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMI1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,23 +979,23 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="18" width="10" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" customWidth="1"/>
-    <col min="22" max="23" width="20.5703125" customWidth="1"/>
-    <col min="24" max="24" width="17" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" customWidth="1"/>
-    <col min="27" max="27" width="24.42578125" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" customWidth="1"/>
-    <col min="32" max="32" width="21" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="17" width="10" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="22" width="20.5703125" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1023" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,64 +1039,61 @@
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AMG1" s="2"/>
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
-      <c r="AMJ1" s="2"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1128,44 +1121,41 @@
       <c r="N2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
       <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
         <v>40</v>
       </c>
+      <c r="R2">
+        <v>0.77</v>
+      </c>
       <c r="S2">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
         <v>1278.55</v>
       </c>
+      <c r="Z2">
+        <v>12</v>
+      </c>
       <c r="AA2">
+        <v>11200</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2">
+        <v>995</v>
+      </c>
+      <c r="AE2">
         <v>12</v>
       </c>
-      <c r="AB2">
-        <v>11200</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2">
-        <v>995</v>
-      </c>
-      <c r="AF2">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>36</v>
       </c>
@@ -1176,25 +1166,22 @@
         <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
         <v>41</v>
       </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
       <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
         <v>1122</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>43</v>
       </c>
@@ -1205,19 +1192,16 @@
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1236,23 +1220,23 @@
       <c r="G5" t="s">
         <v>49</v>
       </c>
+      <c r="Z5">
+        <v>14</v>
+      </c>
       <c r="AA5">
+        <v>1222</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD5">
+        <v>995</v>
+      </c>
+      <c r="AE5">
         <v>14</v>
       </c>
-      <c r="AB5">
-        <v>1222</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5">
-        <v>995</v>
-      </c>
-      <c r="AF5">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1278,39 +1262,36 @@
         <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" t="s">
         <v>45</v>
       </c>
+      <c r="R6">
+        <v>0.22</v>
+      </c>
       <c r="S6">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
         <v>1390</v>
       </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
       <c r="AA6">
-        <v>10</v>
-      </c>
-      <c r="AB6">
         <v>12000</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>59</v>
       </c>
+      <c r="AD6">
+        <v>995</v>
+      </c>
       <c r="AE6">
-        <v>995</v>
-      </c>
-      <c r="AF6">
         <v>23</v>
       </c>
     </row>
@@ -1333,25 +1314,25 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>"White,Yellow,Pink"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 Q2:R1048576 P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 P2:Q1048576 O2:O1048576">
       <formula1>"D,E,F,G,H,I,J,K,L,M,N,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 M1:M1048576 O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 M1:M1048576">
       <formula1>"IF,VVS,VS,SI,I"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE,CZ,SWAROVSKI ZIRCONIA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
       <formula1>"12,14,18,20,22,24,995,999"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"GD/DIA,PT/DIA,SL/DIA,GD/DIA/CS,PT/DIA/CS,SL/DIA/CS,GD/CS,SL/CS,GD/SWCZ,SL/SWCZ,GD/CZ,SL/CZ,PLAIN GD,PLAIN SL,PLAIN PT,GD/POL, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"Black,Blue,Brown,Cream,Green,Pink,Purple,Red,White,Yellow"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
@@ -1361,7 +1342,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AE1:AE4 L5 D7:D1048576 F7:F1048576 G7:G1048576 AE7:AE1048576 W1:W1048576 O5 M1:M5 I1:I1048576 A1:A5 C1:C5 A7:A1048576 C7:C1048576 L7:L1048576 M7:M1048576 O7:O1048576 N1" listDataValidation="1"/>
+    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AD1:AD4 L5 D7:D1048576 F7:F1048576 G7:G1048576 AD7:AD1048576 V1:V1048576 M1:M5 I1:I1048576 A1:A5 C1:C5 A7:A1048576 C7:C1048576 L7:L1048576 M7:M1048576 N1" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="14">
     <tablePart r:id="rId2"/>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -961,8 +961,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,10 +1321,10 @@
       <formula1>"IF,VVS,VS,SI,I"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
-      <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant"</formula1>
+      <formula1>"Round,Pear,Emerald,Asscher,Princess,Marquise,Oval,Cushion,Heart,Radiant,Bugget"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
-      <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE,CZ,SWAROVSKI ZIRCONIA"</formula1>
+      <formula1>"AMBER,AMETHYST,AQUAMARINE,BLUE TOPAZ,CORAL,EMERALD,GARNET,GOLDEN TOPAZ,HYDRO,IOLITE,LEMON TOPAZ,MOONSTONE,ONYX,OPAL,PEARL,PERIDOT,ROSE QUARTZ,RUBILITE,RUBY,SAPPHIRE,SMOKY TOPAZ,TANZANITE,TURQUOISE,CZ,SWAROVSKI ZIRCONIA,OTHER"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576">
       <formula1>"12,14,18,20,22,24,995,999"</formula1>
@@ -1342,7 +1342,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L1 H1:H1048576 G1:G4 F1:F4 D1:D4 AD1:AD4 L5 D7:D1048576 F7:F1048576 G7:G1048576 AD7:AD1048576 V1:V1048576 M1:M5 I1:I1048576 A1:A5 C1:C5 A7:A1048576 C7:C1048576 L7:L1048576 M7:M1048576 N1" listDataValidation="1"/>
+    <ignoredError sqref="H1:H1048576 G1:G4 F1:F4 D1:D4 AD1:AD4 D7:D1048576 F7:F1048576 G7:G1048576 AD7:AD1048576 V1:V1048576 M1:M5 I1:I1048576 A1:A5 C1:C5 A7:A1048576 C7:C1048576 M7:M1048576 N1 L1" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="14">
     <tablePart r:id="rId2"/>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XAMPP\htdocs\iftosi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iftosi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Category</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Other Material (in Grams)</t>
   </si>
   <si>
-    <t>Labour Charge</t>
-  </si>
-  <si>
     <t>Hallmark</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>Colour3</t>
+  </si>
+  <si>
+    <t>Making Charge</t>
+  </si>
+  <si>
+    <t>Labour Charge / Gram</t>
   </si>
 </sst>
 </file>
@@ -961,8 +964,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +992,11 @@
     <col min="24" max="24" width="17.28515625" customWidth="1"/>
     <col min="25" max="25" width="14.140625" customWidth="1"/>
     <col min="26" max="26" width="24.42578125" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" customWidth="1"/>
     <col min="29" max="29" width="15.5703125" customWidth="1"/>
     <col min="30" max="30" width="14.140625" customWidth="1"/>
     <col min="31" max="31" width="21" customWidth="1"/>
+    <col min="32" max="32" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1033,19 +1037,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -1060,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
@@ -1075,19 +1079,22 @@
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
+      <c r="AF1" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AMG1" s="2"/>
       <c r="AMH1" s="2"/>
@@ -1095,40 +1102,40 @@
     </row>
     <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
         <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
       </c>
       <c r="R2">
         <v>0.77</v>
@@ -1146,7 +1153,7 @@
         <v>11200</v>
       </c>
       <c r="AC2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD2">
         <v>995</v>
@@ -1157,22 +1164,22 @@
     </row>
     <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -1183,42 +1190,42 @@
     </row>
     <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
         <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
       </c>
       <c r="Z5">
         <v>14</v>
@@ -1227,7 +1234,7 @@
         <v>1222</v>
       </c>
       <c r="AC5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD5">
         <v>995</v>
@@ -1238,37 +1245,37 @@
     </row>
     <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
       <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
         <v>39</v>
       </c>
-      <c r="P6" t="s">
-        <v>40</v>
-      </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6">
         <v>0.22</v>
@@ -1286,7 +1293,7 @@
         <v>12000</v>
       </c>
       <c r="AC6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD6">
         <v>995</v>
@@ -1297,7 +1304,7 @@
     </row>
     <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048576" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/sampleJewelleryList.xlsx
+++ b/sampleJewelleryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Category</t>
   </si>
@@ -96,18 +96,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>12aqwas</t>
-  </si>
-  <si>
-    <t>SGL</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>Clarity1</t>
   </si>
   <si>
@@ -120,82 +108,7 @@
     <t>Colour2</t>
   </si>
   <si>
-    <t>GD/DIA</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>Pear</t>
-  </si>
-  <si>
-    <t>VVS</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Diwali</t>
-  </si>
-  <si>
-    <t>Marquise</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>asd3</t>
-  </si>
-  <si>
-    <t>PLAIN GD</t>
-  </si>
-  <si>
-    <t>BIS</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>wewer</t>
-  </si>
-  <si>
     <t>Stone Color</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>Ring</t>
-  </si>
-  <si>
-    <t>Pendant</t>
-  </si>
-  <si>
-    <t>Earring</t>
-  </si>
-  <si>
-    <t>DGLA</t>
-  </si>
-  <si>
-    <t>bjp221</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>EID collection</t>
   </si>
   <si>
     <t>Colour3</t>
@@ -964,39 +877,39 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AMI1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
-    <col min="21" max="22" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.25" customWidth="1"/>
+    <col min="20" max="20" width="19.875" customWidth="1"/>
+    <col min="21" max="22" width="20.625" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" customWidth="1"/>
-    <col min="26" max="26" width="24.42578125" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.25" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="24.375" customWidth="1"/>
+    <col min="27" max="27" width="22.625" customWidth="1"/>
+    <col min="29" max="29" width="15.625" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
     <col min="31" max="31" width="21" customWidth="1"/>
-    <col min="32" max="32" width="18.5703125" customWidth="1"/>
+    <col min="32" max="32" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,19 +950,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -1064,7 +977,7 @@
         <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>16</v>
@@ -1079,7 +992,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>20</v>
@@ -1094,213 +1007,14 @@
         <v>23</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="AMG1" s="2"/>
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
     </row>
     <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2">
-        <v>0.77</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1278.55</v>
-      </c>
-      <c r="Z2">
-        <v>12</v>
-      </c>
-      <c r="AA2">
-        <v>11200</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2">
-        <v>995</v>
-      </c>
-      <c r="AE2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5">
-        <v>14</v>
-      </c>
-      <c r="AA5">
-        <v>1222</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5">
-        <v>995</v>
-      </c>
-      <c r="AE5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6">
-        <v>0.22</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1390</v>
-      </c>
-      <c r="Z6">
-        <v>10</v>
-      </c>
-      <c r="AA6">
-        <v>12000</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD6">
-        <v>995</v>
-      </c>
-      <c r="AE6">
-        <v>23</v>
-      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048576" t="s">
@@ -1349,7 +1063,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="H1:H1048576 G1:G4 F1:F4 D1:D4 AD1:AD4 D7:D1048576 F7:F1048576 G7:G1048576 AD7:AD1048576 V1:V1048576 M1:M5 I1:I1048576 A1:A5 C1:C5 A7:A1048576 C7:C1048576 M7:M1048576 N1 L1" listDataValidation="1"/>
+    <ignoredError sqref="H1 G1 F1 D1 AD1 D7:D1048576 F7:F1048576 G7:G1048576 AD7:AD1048576 V1 M1 I1 A1 C1 A7:A1048576 C7:C1048576 M7:M1048576 N1 L1 H7:H1048576 V7:V1048576 I7:I1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="14">
     <tablePart r:id="rId2"/>
